--- a/Data/Jugado.xlsx
+++ b/Data/Jugado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\OneDrive\Escritorio\Repositorio\jonatha1992\Predictor_ruleta\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518F4102-DC7C-472B-8FFD-A701C209DA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE338E3-F79C-4091-B2B9-B436E0D44093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>numeros jugados</t>
   </si>
@@ -42,6 +42,12 @@
   <si>
     <t>plenos</t>
   </si>
+  <si>
+    <t>valor ficha</t>
+  </si>
+  <si>
+    <t>jugado</t>
+  </si>
 </sst>
 </file>
 
@@ -61,12 +67,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -96,11 +108,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,19 +416,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -426,23 +440,28 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -450,25 +469,32 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <f>36*C2</f>
-        <v>36000</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <f>B2*C2</f>
-        <v>5000</v>
+        <f>C2*D2</f>
+        <v>100</v>
       </c>
       <c r="F2">
+        <f>36*E2</f>
+        <v>3600</v>
+      </c>
+      <c r="G2">
+        <f>B2*E2</f>
         <v>500</v>
       </c>
-      <c r="G2">
-        <f>D2-F2</f>
-        <v>35500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>500</v>
+      </c>
+      <c r="I2">
+        <f>F2-H2</f>
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -476,26 +502,33 @@
         <v>5</v>
       </c>
       <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E22" si="0">C3*D3</f>
+        <v>200</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F22" si="1">36*E3</f>
+        <v>7200</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G22" si="2">B3*E3</f>
         <v>1000</v>
       </c>
-      <c r="D3">
-        <f>36*C3</f>
-        <v>36000</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E16" si="0">B3*C3</f>
-        <v>5000</v>
-      </c>
-      <c r="F3">
-        <f>E3+F2</f>
-        <v>5500</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G5" si="1">D3-F3</f>
-        <v>30500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <f>G3+H2</f>
+        <v>1500</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I5" si="3">F3-H3</f>
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -503,26 +536,33 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <f>36*C4</f>
-        <v>36000</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F16" si="2">E4+F3</f>
-        <v>10500</v>
+        <f t="shared" si="1"/>
+        <v>10800</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
-        <v>25500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H16" si="4">G4+H3</f>
+        <v>3000</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -530,26 +570,33 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D22" si="3">36*C5</f>
-        <v>36000</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>14400</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
-        <v>15500</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>20500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -557,26 +604,33 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <f t="shared" si="3"/>
-        <v>36000</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
-        <v>20500</v>
+        <f t="shared" si="1"/>
+        <v>18000</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G16" si="4">D6-F6</f>
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>7500</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I16" si="5">F6-H6</f>
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -584,26 +638,33 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <f t="shared" si="3"/>
-        <v>36000</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
-        <v>25500</v>
+        <f t="shared" si="1"/>
+        <v>21600</v>
       </c>
       <c r="G7">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="4"/>
         <v>10500</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <f t="shared" si="5"/>
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -611,26 +672,33 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>2000</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <f t="shared" si="3"/>
-        <v>72000</v>
+        <v>100</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>700</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
-        <v>35500</v>
+        <f t="shared" si="1"/>
+        <v>25200</v>
       </c>
       <c r="G8">
+        <f t="shared" si="2"/>
+        <v>3500</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="4"/>
-        <v>36500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>14000</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="5"/>
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -638,26 +706,33 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>2000</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <f t="shared" si="3"/>
-        <v>72000</v>
+        <v>100</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>800</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
-        <v>45500</v>
+        <f t="shared" si="1"/>
+        <v>28800</v>
       </c>
       <c r="G9">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="4"/>
-        <v>26500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18000</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="5"/>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -665,26 +740,33 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>2000</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <f t="shared" si="3"/>
-        <v>72000</v>
+        <v>100</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>900</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
-        <v>55500</v>
+        <f t="shared" si="1"/>
+        <v>32400</v>
       </c>
       <c r="G10">
+        <f t="shared" si="2"/>
+        <v>4500</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="4"/>
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>22500</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="5"/>
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -692,26 +774,33 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <f t="shared" si="3"/>
-        <v>108000</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
-        <v>70500</v>
+        <f t="shared" si="1"/>
+        <v>36000</v>
       </c>
       <c r="G11">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="4"/>
-        <v>37500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27500</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="5"/>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -719,293 +808,370 @@
         <v>5</v>
       </c>
       <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>39600</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>5500</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>33000</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="5"/>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>14400</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="4"/>
+        <v>35000</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="5"/>
+        <v>-20600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>14400</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="4"/>
+        <v>37000</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="5"/>
+        <v>-22600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="4"/>
+        <v>39500</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="5"/>
+        <v>-21500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2">
+        <v>100</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
+        <v>21600</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="3"/>
-        <v>108000</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
-        <v>85500</v>
-      </c>
-      <c r="G12">
+      <c r="H16" s="2">
         <f t="shared" si="4"/>
-        <v>22500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
+        <v>42500</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="5"/>
+        <v>-20900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2">
+        <v>100</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="1"/>
+        <v>25200</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="2"/>
+        <v>3500</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" ref="H17:H21" si="6">G17+H16</f>
+        <v>46000</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" ref="I17:I21" si="7">F17-H17</f>
+        <v>-20800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="1"/>
+        <v>28800</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="6"/>
+        <v>50000</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="7"/>
+        <v>-21200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2">
+        <v>100</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="1"/>
+        <v>32400</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>4500</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="6"/>
+        <v>54500</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="7"/>
+        <v>-22100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>4000</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="3"/>
-        <v>144000</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>105500</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="4"/>
-        <v>38500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>4000</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="3"/>
-        <v>144000</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>125500</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="4"/>
-        <v>18500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="D20" s="2">
+        <v>100</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="1"/>
+        <v>39600</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="2"/>
+        <v>5500</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="6"/>
+        <v>60000</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="7"/>
+        <v>-20400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>5000</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="3"/>
-        <v>180000</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>25000</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
-        <v>150500</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="4"/>
-        <v>29500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>6000</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="3"/>
-        <v>216000</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>30000</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="2"/>
-        <v>180500</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="4"/>
-        <v>35500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="D21" s="2">
+        <v>100</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="1"/>
+        <v>46800</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="2"/>
+        <v>6500</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="6"/>
+        <v>66500</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="7"/>
+        <v>-19700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>7000</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="3"/>
-        <v>252000</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ref="E17:E21" si="5">B17*C17</f>
-        <v>35000</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ref="F17:F21" si="6">E17+F16</f>
-        <v>215500</v>
-      </c>
-      <c r="G17">
-        <f t="shared" ref="G17:G21" si="7">D17-F17</f>
-        <v>36500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>8000</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="3"/>
-        <v>288000</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="5"/>
-        <v>40000</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="6"/>
-        <v>255500</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="7"/>
-        <v>32500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>9000</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="3"/>
-        <v>324000</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="5"/>
-        <v>45000</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="6"/>
-        <v>300500</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="7"/>
-        <v>23500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>11000</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="3"/>
-        <v>396000</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="5"/>
-        <v>55000</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="6"/>
-        <v>355500</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="7"/>
-        <v>40500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>13000</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="3"/>
-        <v>468000</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="5"/>
-        <v>65000</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="6"/>
-        <v>420500</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="7"/>
-        <v>47500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>15000</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="3"/>
-        <v>540000</v>
-      </c>
-      <c r="E22">
-        <f t="shared" ref="E22" si="8">B22*C22</f>
-        <v>75000</v>
-      </c>
-      <c r="F22">
-        <f t="shared" ref="F22" si="9">E22+F21</f>
-        <v>495500</v>
-      </c>
-      <c r="G22">
-        <f t="shared" ref="G22" si="10">D22-F22</f>
-        <v>44500</v>
+      <c r="D22" s="2">
+        <v>100</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="1"/>
+        <v>54000</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="2"/>
+        <v>7500</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" ref="H22" si="8">G22+H21</f>
+        <v>74000</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" ref="I22" si="9">F22-H22</f>
+        <v>-20000</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Jugado.xlsx
+++ b/Data/Jugado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\OneDrive\Escritorio\Repositorio\jonatha1992\Predictor_ruleta\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE338E3-F79C-4091-B2B9-B436E0D44093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B957C4-8C75-44B4-8A04-8ED39749AC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salidos" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D2" sqref="D2:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,7 +844,7 @@
       <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>100</v>
       </c>
       <c r="E13" s="2">
@@ -878,7 +878,7 @@
       <c r="C14" s="2">
         <v>4</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>100</v>
       </c>
       <c r="E14" s="2">
@@ -912,7 +912,7 @@
       <c r="C15" s="2">
         <v>5</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>100</v>
       </c>
       <c r="E15" s="2">
@@ -946,7 +946,7 @@
       <c r="C16" s="2">
         <v>6</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>100</v>
       </c>
       <c r="E16" s="2">
@@ -980,7 +980,7 @@
       <c r="C17" s="2">
         <v>7</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>100</v>
       </c>
       <c r="E17" s="2">
@@ -1014,7 +1014,7 @@
       <c r="C18" s="2">
         <v>8</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>100</v>
       </c>
       <c r="E18" s="2">
@@ -1048,7 +1048,7 @@
       <c r="C19" s="2">
         <v>9</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>100</v>
       </c>
       <c r="E19" s="2">
@@ -1082,7 +1082,7 @@
       <c r="C20" s="2">
         <v>11</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
         <v>100</v>
       </c>
       <c r="E20" s="2">
@@ -1116,7 +1116,7 @@
       <c r="C21" s="2">
         <v>13</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>100</v>
       </c>
       <c r="E21" s="2">
@@ -1150,7 +1150,7 @@
       <c r="C22" s="2">
         <v>15</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
         <v>100</v>
       </c>
       <c r="E22" s="2">

--- a/Data/Jugado.xlsx
+++ b/Data/Jugado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\OneDrive\Escritorio\Repositorio\jonatha1992\Predictor_ruleta\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B957C4-8C75-44B4-8A04-8ED39749AC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE338E3-F79C-4091-B2B9-B436E0D44093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salidos" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D22"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,7 +844,7 @@
       <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>100</v>
       </c>
       <c r="E13" s="2">
@@ -878,7 +878,7 @@
       <c r="C14" s="2">
         <v>4</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>100</v>
       </c>
       <c r="E14" s="2">
@@ -912,7 +912,7 @@
       <c r="C15" s="2">
         <v>5</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>100</v>
       </c>
       <c r="E15" s="2">
@@ -946,7 +946,7 @@
       <c r="C16" s="2">
         <v>6</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>100</v>
       </c>
       <c r="E16" s="2">
@@ -980,7 +980,7 @@
       <c r="C17" s="2">
         <v>7</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>100</v>
       </c>
       <c r="E17" s="2">
@@ -1014,7 +1014,7 @@
       <c r="C18" s="2">
         <v>8</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>100</v>
       </c>
       <c r="E18" s="2">
@@ -1048,7 +1048,7 @@
       <c r="C19" s="2">
         <v>9</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>100</v>
       </c>
       <c r="E19" s="2">
@@ -1082,7 +1082,7 @@
       <c r="C20" s="2">
         <v>11</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>100</v>
       </c>
       <c r="E20" s="2">
@@ -1116,7 +1116,7 @@
       <c r="C21" s="2">
         <v>13</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>100</v>
       </c>
       <c r="E21" s="2">
@@ -1150,7 +1150,7 @@
       <c r="C22" s="2">
         <v>15</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>100</v>
       </c>
       <c r="E22" s="2">

--- a/Data/Jugado.xlsx
+++ b/Data/Jugado.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\OneDrive\Escritorio\Repositorio\jonatha1992\Predictor_ruleta\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE338E3-F79C-4091-B2B9-B436E0D44093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77682FD7-00CA-4E3E-88FF-D96141D07C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,32 +466,32 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E2">
         <f>C2*D2</f>
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F2">
         <f>36*E2</f>
-        <v>3600</v>
+        <v>18000</v>
       </c>
       <c r="G2">
         <f>B2*E2</f>
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="H2">
         <v>500</v>
       </c>
       <c r="I2">
         <f>F2-H2</f>
-        <v>3100</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -499,33 +499,33 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E22" si="0">C3*D3</f>
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F22" si="1">36*E3</f>
-        <v>7200</v>
+        <v>36000</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G22" si="2">B3*E3</f>
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="H3">
         <f>G3+H2</f>
-        <v>1500</v>
+        <v>7500</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I5" si="3">F3-H3</f>
-        <v>5700</v>
+        <v>28500</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -533,33 +533,33 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>10800</v>
+        <v>54000</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>1500</v>
+        <v>10500</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H16" si="4">G4+H3</f>
-        <v>3000</v>
+        <v>18000</v>
       </c>
       <c r="I4">
-        <f t="shared" si="3"/>
-        <v>7800</v>
+        <f>F4-H4</f>
+        <v>36000</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -567,33 +567,33 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>14400</v>
+        <v>72000</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="H5">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>32000</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>9400</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -601,33 +601,33 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>18000</v>
+        <v>90000</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>2500</v>
+        <v>17500</v>
       </c>
       <c r="H6">
         <f t="shared" si="4"/>
-        <v>7500</v>
+        <v>49500</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I16" si="5">F6-H6</f>
-        <v>10500</v>
+        <v>40500</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -635,203 +635,203 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>21600</v>
+        <v>108000</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>21000</v>
       </c>
       <c r="H7">
         <f t="shared" si="4"/>
-        <v>10500</v>
+        <v>70500</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
-        <v>11100</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
         <v>7</v>
       </c>
       <c r="D8">
-        <v>100</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>25200</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
         <v>3500</v>
       </c>
-      <c r="H8">
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>126000</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>24500</v>
+      </c>
+      <c r="H8" s="2">
         <f t="shared" si="4"/>
-        <v>14000</v>
-      </c>
-      <c r="I8">
+        <v>95000</v>
+      </c>
+      <c r="I8" s="2">
         <f t="shared" si="5"/>
-        <v>11200</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
         <v>8</v>
       </c>
       <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>28800</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="H9">
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>144000</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>28000</v>
+      </c>
+      <c r="H9" s="2">
         <f t="shared" si="4"/>
-        <v>18000</v>
-      </c>
-      <c r="I9">
+        <v>123000</v>
+      </c>
+      <c r="I9" s="2">
         <f t="shared" si="5"/>
-        <v>10800</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>100</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>32400</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
         <v>4500</v>
       </c>
-      <c r="H10">
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>162000</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>31500</v>
+      </c>
+      <c r="H10" s="2">
         <f t="shared" si="4"/>
-        <v>22500</v>
-      </c>
-      <c r="I10">
+        <v>154500</v>
+      </c>
+      <c r="I10" s="2">
         <f t="shared" si="5"/>
-        <v>9900</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
         <v>10</v>
       </c>
       <c r="D11">
-        <v>100</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>36000</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="H11">
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>180000</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>35000</v>
+      </c>
+      <c r="H11" s="2">
         <f t="shared" si="4"/>
-        <v>27500</v>
-      </c>
-      <c r="I11">
+        <v>189500</v>
+      </c>
+      <c r="I11" s="2">
         <f t="shared" si="5"/>
-        <v>8500</v>
+        <v>-9500</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
         <v>11</v>
       </c>
       <c r="D12">
-        <v>100</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>1100</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>39600</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
         <v>5500</v>
       </c>
-      <c r="H12">
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>198000</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>38500</v>
+      </c>
+      <c r="H12" s="2">
         <f t="shared" si="4"/>
-        <v>33000</v>
-      </c>
-      <c r="I12">
+        <v>228000</v>
+      </c>
+      <c r="I12" s="2">
         <f t="shared" si="5"/>
-        <v>6600</v>
+        <v>-30000</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -839,33 +839,33 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="D13" s="2">
-        <v>100</v>
+      <c r="D13">
+        <v>500</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>14400</v>
+        <v>72000</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="4"/>
-        <v>35000</v>
+        <v>242000</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="5"/>
-        <v>-20600</v>
+        <v>-170000</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -873,33 +873,33 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2">
         <v>4</v>
       </c>
-      <c r="D14" s="2">
-        <v>100</v>
+      <c r="D14">
+        <v>500</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>14400</v>
+        <v>72000</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="4"/>
-        <v>37000</v>
+        <v>256000</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="5"/>
-        <v>-22600</v>
+        <v>-184000</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -907,33 +907,33 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2">
         <v>5</v>
       </c>
-      <c r="D15" s="2">
-        <v>100</v>
+      <c r="D15">
+        <v>500</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>18000</v>
+        <v>90000</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="2"/>
-        <v>2500</v>
+        <v>17500</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="4"/>
-        <v>39500</v>
+        <v>273500</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="5"/>
-        <v>-21500</v>
+        <v>-183500</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -941,33 +941,33 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2">
         <v>6</v>
       </c>
-      <c r="D16" s="2">
-        <v>100</v>
+      <c r="D16">
+        <v>500</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="1"/>
-        <v>21600</v>
+        <v>108000</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>21000</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="4"/>
-        <v>42500</v>
+        <v>294500</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="5"/>
-        <v>-20900</v>
+        <v>-186500</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -975,33 +975,33 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2">
         <v>7</v>
       </c>
-      <c r="D17" s="2">
-        <v>100</v>
+      <c r="D17">
+        <v>500</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>3500</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="1"/>
-        <v>25200</v>
+        <v>126000</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="2"/>
-        <v>3500</v>
+        <v>24500</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" ref="H17:H21" si="6">G17+H16</f>
-        <v>46000</v>
+        <v>319000</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" ref="I17:I21" si="7">F17-H17</f>
-        <v>-20800</v>
+        <v>-193000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1009,33 +1009,33 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2">
         <v>8</v>
       </c>
-      <c r="D18" s="2">
-        <v>100</v>
+      <c r="D18">
+        <v>500</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>4000</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="1"/>
-        <v>28800</v>
+        <v>144000</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>28000</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="6"/>
-        <v>50000</v>
+        <v>347000</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="7"/>
-        <v>-21200</v>
+        <v>-203000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1043,33 +1043,33 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2">
         <v>9</v>
       </c>
-      <c r="D19" s="2">
-        <v>100</v>
+      <c r="D19">
+        <v>500</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>4500</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="1"/>
-        <v>32400</v>
+        <v>162000</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="2"/>
-        <v>4500</v>
+        <v>31500</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="6"/>
-        <v>54500</v>
+        <v>378500</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" si="7"/>
-        <v>-22100</v>
+        <v>-216500</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1077,33 +1077,33 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2">
         <v>11</v>
       </c>
-      <c r="D20" s="2">
-        <v>100</v>
+      <c r="D20">
+        <v>500</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>5500</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="1"/>
-        <v>39600</v>
+        <v>198000</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="2"/>
-        <v>5500</v>
+        <v>38500</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="6"/>
-        <v>60000</v>
+        <v>417000</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="7"/>
-        <v>-20400</v>
+        <v>-219000</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1111,33 +1111,33 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2">
         <v>13</v>
       </c>
-      <c r="D21" s="2">
-        <v>100</v>
+      <c r="D21">
+        <v>500</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>6500</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="1"/>
-        <v>46800</v>
+        <v>234000</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="2"/>
-        <v>6500</v>
+        <v>45500</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="6"/>
-        <v>66500</v>
+        <v>462500</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="7"/>
-        <v>-19700</v>
+        <v>-228500</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1145,33 +1145,33 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2">
         <v>15</v>
       </c>
-      <c r="D22" s="2">
-        <v>100</v>
+      <c r="D22">
+        <v>500</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>7500</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="1"/>
-        <v>54000</v>
+        <v>270000</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="2"/>
-        <v>7500</v>
+        <v>52500</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" ref="H22" si="8">G22+H21</f>
-        <v>74000</v>
+        <v>515000</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" ref="I22" si="9">F22-H22</f>
-        <v>-20000</v>
+        <v>-245000</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Jugado.xlsx
+++ b/Data/Jugado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\OneDrive\Escritorio\Repositorio\jonatha1992\Predictor_ruleta\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77682FD7-00CA-4E3E-88FF-D96141D07C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4A7F23-9FE8-459A-A24A-707980BBEFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,32 +466,32 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E2">
         <f>C2*D2</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F2">
         <f>36*E2</f>
-        <v>18000</v>
+        <v>36000</v>
       </c>
       <c r="G2">
         <f>B2*E2</f>
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="H2">
         <v>500</v>
       </c>
       <c r="I2">
         <f>F2-H2</f>
-        <v>17500</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -499,33 +499,33 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E22" si="0">C3*D3</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F22" si="1">36*E3</f>
-        <v>36000</v>
+        <v>72000</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G22" si="2">B3*E3</f>
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="H3">
         <f>G3+H2</f>
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I5" si="3">F3-H3</f>
-        <v>28500</v>
+        <v>61500</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -533,33 +533,33 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>54000</v>
+        <v>108000</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H16" si="4">G4+H3</f>
-        <v>18000</v>
+        <v>25500</v>
       </c>
       <c r="I4">
         <f>F4-H4</f>
-        <v>36000</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -567,33 +567,33 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>72000</v>
+        <v>144000</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="H5">
         <f t="shared" si="4"/>
-        <v>32000</v>
+        <v>45500</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>40000</v>
+        <v>98500</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -601,33 +601,33 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>17500</v>
+        <v>25000</v>
       </c>
       <c r="H6">
         <f t="shared" si="4"/>
-        <v>49500</v>
+        <v>70500</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I16" si="5">F6-H6</f>
-        <v>40500</v>
+        <v>109500</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -635,543 +635,543 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>108000</v>
+        <v>216000</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="H7">
         <f t="shared" si="4"/>
-        <v>70500</v>
+        <v>100500</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
-        <v>37500</v>
+        <v>115500</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <v>7</v>
+      <c r="B8">
+        <v>5</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
       </c>
       <c r="D8">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="1"/>
-        <v>126000</v>
+        <v>252000</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="2"/>
-        <v>24500</v>
+        <v>35000</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="4"/>
-        <v>95000</v>
+        <v>135500</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="5"/>
-        <v>31000</v>
+        <v>116500</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>7</v>
+      <c r="B9">
+        <v>5</v>
       </c>
       <c r="C9" s="2">
         <v>8</v>
       </c>
       <c r="D9">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="1"/>
-        <v>144000</v>
+        <v>288000</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="2"/>
-        <v>28000</v>
+        <v>40000</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="4"/>
-        <v>123000</v>
+        <v>175500</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="5"/>
-        <v>21000</v>
+        <v>112500</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>7</v>
+      <c r="B10">
+        <v>5</v>
       </c>
       <c r="C10" s="2">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
-        <v>162000</v>
+        <v>324000</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="2"/>
-        <v>31500</v>
+        <v>45000</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="4"/>
-        <v>154500</v>
+        <v>220500</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="5"/>
-        <v>7500</v>
+        <v>103500</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>7</v>
+      <c r="B11">
+        <v>5</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
       </c>
       <c r="D11">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="1"/>
-        <v>180000</v>
+        <v>360000</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="2"/>
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="4"/>
-        <v>189500</v>
+        <v>270500</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="5"/>
-        <v>-9500</v>
+        <v>89500</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>7</v>
+      <c r="B12">
+        <v>5</v>
       </c>
       <c r="C12" s="2">
         <v>11</v>
       </c>
       <c r="D12">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>198000</v>
+        <v>396000</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="2"/>
-        <v>38500</v>
+        <v>55000</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="4"/>
-        <v>228000</v>
+        <v>325500</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="5"/>
-        <v>-30000</v>
+        <v>70500</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
-        <v>7</v>
+      <c r="B13">
+        <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>72000</v>
+        <v>432000</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="2"/>
-        <v>14000</v>
+        <v>60000</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="4"/>
-        <v>242000</v>
+        <v>385500</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="5"/>
-        <v>-170000</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
-        <v>7</v>
+      <c r="B14">
+        <v>5</v>
       </c>
       <c r="C14" s="2">
         <v>4</v>
       </c>
       <c r="D14">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>72000</v>
+        <v>144000</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="2"/>
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="4"/>
-        <v>256000</v>
+        <v>405500</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="5"/>
-        <v>-184000</v>
+        <v>-261500</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
-        <v>7</v>
+      <c r="B15">
+        <v>5</v>
       </c>
       <c r="C15" s="2">
         <v>5</v>
       </c>
       <c r="D15">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="2"/>
-        <v>17500</v>
+        <v>25000</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="4"/>
-        <v>273500</v>
+        <v>430500</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="5"/>
-        <v>-183500</v>
+        <v>-250500</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
-        <v>7</v>
+      <c r="B16">
+        <v>5</v>
       </c>
       <c r="C16" s="2">
         <v>6</v>
       </c>
       <c r="D16">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="1"/>
-        <v>108000</v>
+        <v>216000</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="2"/>
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="4"/>
-        <v>294500</v>
+        <v>460500</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="5"/>
-        <v>-186500</v>
+        <v>-244500</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
-        <v>7</v>
+      <c r="B17">
+        <v>5</v>
       </c>
       <c r="C17" s="2">
         <v>7</v>
       </c>
       <c r="D17">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="1"/>
-        <v>126000</v>
+        <v>252000</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="2"/>
-        <v>24500</v>
+        <v>35000</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" ref="H17:H21" si="6">G17+H16</f>
-        <v>319000</v>
+        <v>495500</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" ref="I17:I21" si="7">F17-H17</f>
-        <v>-193000</v>
+        <v>-243500</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
-        <v>7</v>
+      <c r="B18">
+        <v>5</v>
       </c>
       <c r="C18" s="2">
         <v>8</v>
       </c>
       <c r="D18">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="1"/>
-        <v>144000</v>
+        <v>288000</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="2"/>
-        <v>28000</v>
+        <v>40000</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="6"/>
-        <v>347000</v>
+        <v>535500</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="7"/>
-        <v>-203000</v>
+        <v>-247500</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
-        <v>7</v>
+      <c r="B19">
+        <v>5</v>
       </c>
       <c r="C19" s="2">
         <v>9</v>
       </c>
       <c r="D19">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="1"/>
-        <v>162000</v>
+        <v>324000</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="2"/>
-        <v>31500</v>
+        <v>45000</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="6"/>
-        <v>378500</v>
+        <v>580500</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" si="7"/>
-        <v>-216500</v>
+        <v>-256500</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
-        <v>7</v>
+      <c r="B20">
+        <v>5</v>
       </c>
       <c r="C20" s="2">
         <v>11</v>
       </c>
       <c r="D20">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="1"/>
-        <v>198000</v>
+        <v>396000</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="2"/>
-        <v>38500</v>
+        <v>55000</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="6"/>
-        <v>417000</v>
+        <v>635500</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="7"/>
-        <v>-219000</v>
+        <v>-239500</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
-        <v>7</v>
+      <c r="B21">
+        <v>5</v>
       </c>
       <c r="C21" s="2">
         <v>13</v>
       </c>
       <c r="D21">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="1"/>
-        <v>234000</v>
+        <v>468000</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="2"/>
-        <v>45500</v>
+        <v>65000</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="6"/>
-        <v>462500</v>
+        <v>700500</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="7"/>
-        <v>-228500</v>
+        <v>-232500</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
-        <v>7</v>
+      <c r="B22">
+        <v>5</v>
       </c>
       <c r="C22" s="2">
         <v>15</v>
       </c>
       <c r="D22">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="1"/>
-        <v>270000</v>
+        <v>540000</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="2"/>
-        <v>52500</v>
+        <v>75000</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" ref="H22" si="8">G22+H21</f>
-        <v>515000</v>
+        <v>775500</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" ref="I22" si="9">F22-H22</f>
-        <v>-245000</v>
+        <v>-235500</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Jugado.xlsx
+++ b/Data/Jugado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\OneDrive\Escritorio\Repositorio\jonatha1992\Predictor_ruleta\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4A7F23-9FE8-459A-A24A-707980BBEFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322F8E65-8AF2-46EA-8565-2228A5D3C86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,10 +463,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -484,7 +484,7 @@
       </c>
       <c r="G2">
         <f>B2*E2</f>
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="H2">
         <v>500</v>
@@ -496,683 +496,1078 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>1</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
       </c>
       <c r="D3">
         <v>1000</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E22" si="0">C3*D3</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F22" si="1">36*E3</f>
-        <v>72000</v>
+        <v>36000</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G22" si="2">B3*E3</f>
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="H3">
         <f>G3+H2</f>
-        <v>10500</v>
+        <v>3500</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I5" si="3">F3-H3</f>
-        <v>61500</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>1000</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>36000</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
         <v>3000</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>108000</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="2"/>
-        <v>15000</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H16" si="4">G4+H3</f>
-        <v>25500</v>
+        <v>6500</v>
       </c>
       <c r="I4">
         <f>F4-H4</f>
-        <v>82500</v>
+        <v>29500</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1000</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>144000</v>
+        <v>36000</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="H5">
         <f t="shared" si="4"/>
-        <v>45500</v>
+        <v>9500</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>98500</v>
+        <v>26500</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>1000</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>180000</v>
+        <v>36000</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>25000</v>
+        <v>3000</v>
       </c>
       <c r="H6">
         <f t="shared" si="4"/>
-        <v>70500</v>
+        <v>12500</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I16" si="5">F6-H6</f>
-        <v>109500</v>
+        <v>23500</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>1000</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>216000</v>
+        <v>36000</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="H7">
         <f t="shared" si="4"/>
-        <v>100500</v>
+        <v>15500</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
-        <v>115500</v>
+        <v>20500</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>6</v>
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8">
         <v>1000</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="1"/>
-        <v>252000</v>
+        <v>36000</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="2"/>
-        <v>35000</v>
+        <v>3000</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="4"/>
-        <v>135500</v>
+        <v>18500</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="5"/>
-        <v>116500</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>7</v>
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="D9">
         <v>1000</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="1"/>
-        <v>288000</v>
+        <v>36000</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="2"/>
-        <v>40000</v>
+        <v>3000</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="4"/>
-        <v>175500</v>
+        <v>21500</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="5"/>
-        <v>112500</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>8</v>
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
       </c>
       <c r="D10">
         <v>1000</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
-        <v>324000</v>
+        <v>36000</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="2"/>
-        <v>45000</v>
+        <v>3000</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="4"/>
-        <v>220500</v>
+        <v>24500</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="5"/>
-        <v>103500</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>9</v>
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
       </c>
       <c r="D11">
         <v>1000</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="1"/>
-        <v>360000</v>
+        <v>72000</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>6000</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="4"/>
-        <v>270500</v>
+        <v>30500</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="5"/>
-        <v>89500</v>
+        <v>41500</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>10</v>
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
       </c>
       <c r="D12">
         <v>1000</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>396000</v>
+        <v>72000</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="2"/>
-        <v>55000</v>
+        <v>6000</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="4"/>
-        <v>325500</v>
+        <v>36500</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="5"/>
-        <v>70500</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>11</v>
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
       </c>
       <c r="D13">
         <v>1000</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>432000</v>
+        <v>72000</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="2"/>
-        <v>60000</v>
+        <v>6000</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="4"/>
-        <v>385500</v>
+        <v>42500</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="5"/>
-        <v>46500</v>
+        <v>29500</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>12</v>
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
       </c>
       <c r="D14">
         <v>1000</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>144000</v>
+        <v>72000</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="4"/>
-        <v>405500</v>
+        <v>48500</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="5"/>
-        <v>-261500</v>
+        <v>23500</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>13</v>
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
       </c>
       <c r="D15">
         <v>1000</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>180000</v>
+        <v>72000</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="2"/>
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="4"/>
-        <v>430500</v>
+        <v>54500</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="5"/>
-        <v>-250500</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>14</v>
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
       </c>
       <c r="D16">
         <v>1000</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="1"/>
-        <v>216000</v>
+        <v>108000</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>9000</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="4"/>
-        <v>460500</v>
+        <v>63500</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="5"/>
-        <v>-244500</v>
+        <v>44500</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>15</v>
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
       </c>
       <c r="D17">
         <v>1000</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="1"/>
-        <v>252000</v>
+        <v>108000</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="2"/>
-        <v>35000</v>
+        <v>9000</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" ref="H17:H21" si="6">G17+H16</f>
-        <v>495500</v>
+        <v>72500</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" ref="I17:I21" si="7">F17-H17</f>
-        <v>-243500</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>16</v>
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
       </c>
       <c r="D18">
         <v>1000</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="1"/>
-        <v>288000</v>
+        <v>108000</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="2"/>
-        <v>40000</v>
+        <v>9000</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="6"/>
-        <v>535500</v>
+        <v>81500</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="7"/>
-        <v>-247500</v>
+        <v>26500</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>17</v>
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
       </c>
       <c r="D19">
         <v>1000</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="1"/>
+        <v>108000</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
         <v>9000</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="1"/>
-        <v>324000</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="2"/>
-        <v>45000</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="6"/>
-        <v>580500</v>
+        <v>90500</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" si="7"/>
-        <v>-256500</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>18</v>
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
       </c>
       <c r="D20">
         <v>1000</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="1"/>
-        <v>396000</v>
+        <v>144000</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="2"/>
-        <v>55000</v>
+        <v>12000</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="6"/>
-        <v>635500</v>
+        <v>102500</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="7"/>
-        <v>-239500</v>
+        <v>41500</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>19</v>
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
       </c>
       <c r="D21">
         <v>1000</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="1"/>
-        <v>468000</v>
+        <v>144000</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="2"/>
-        <v>65000</v>
+        <v>12000</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="6"/>
-        <v>700500</v>
+        <v>114500</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="7"/>
-        <v>-232500</v>
+        <v>29500</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>20</v>
+      <c r="A22">
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
       </c>
       <c r="D22">
         <v>1000</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="1"/>
-        <v>540000</v>
+        <v>144000</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="2"/>
-        <v>75000</v>
+        <v>12000</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" ref="H22" si="8">G22+H21</f>
-        <v>775500</v>
+        <v>126500</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" ref="I22" si="9">F22-H22</f>
-        <v>-235500</v>
-      </c>
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" ref="E23:E36" si="10">C23*D23</f>
+        <v>5000</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" ref="F23:F36" si="11">36*E23</f>
+        <v>180000</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" ref="G23:G36" si="12">B23*E23</f>
+        <v>15000</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" ref="H23:H36" si="13">G23+H22</f>
+        <v>141500</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" ref="I23:I36" si="14">F23-H23</f>
+        <v>38500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="10"/>
+        <v>5000</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="11"/>
+        <v>180000</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="12"/>
+        <v>15000</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="13"/>
+        <v>156500</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="14"/>
+        <v>23500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>1000</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="10"/>
+        <v>6000</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="11"/>
+        <v>216000</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="12"/>
+        <v>18000</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="13"/>
+        <v>174500</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="14"/>
+        <v>41500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="10"/>
+        <v>6000</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="11"/>
+        <v>216000</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="12"/>
+        <v>18000</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="13"/>
+        <v>192500</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="14"/>
+        <v>23500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="10"/>
+        <v>7000</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="11"/>
+        <v>252000</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="12"/>
+        <v>21000</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="13"/>
+        <v>213500</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="14"/>
+        <v>38500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="10"/>
+        <v>7000</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="11"/>
+        <v>252000</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="12"/>
+        <v>21000</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="13"/>
+        <v>234500</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="14"/>
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>1000</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="10"/>
+        <v>8000</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="11"/>
+        <v>288000</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="13"/>
+        <v>258500</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="14"/>
+        <v>29500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>1000</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="10"/>
+        <v>9000</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="11"/>
+        <v>324000</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="12"/>
+        <v>27000</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="13"/>
+        <v>285500</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="14"/>
+        <v>38500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>1000</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="10"/>
+        <v>10000</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="11"/>
+        <v>360000</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="12"/>
+        <v>30000</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="13"/>
+        <v>315500</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="14"/>
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>21</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="10"/>
+        <v>11000</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="11"/>
+        <v>396000</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="12"/>
+        <v>33000</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="13"/>
+        <v>348500</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="14"/>
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>21</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="10"/>
+        <v>12000</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="11"/>
+        <v>432000</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="12"/>
+        <v>36000</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="13"/>
+        <v>384500</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="14"/>
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/Jugado.xlsx
+++ b/Data/Jugado.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\OneDrive\Escritorio\Repositorio\jonatha1992\Predictor_ruleta\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322F8E65-8AF2-46EA-8565-2228A5D3C86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58981227-DE92-4E6C-8790-8889ADA4736C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,32 +466,32 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E2">
         <f>C2*D2</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F2">
         <f>36*E2</f>
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="G2">
         <f>B2*E2</f>
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H2">
         <v>500</v>
       </c>
       <c r="I2">
         <f>F2-H2</f>
-        <v>35500</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -499,33 +499,33 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E22" si="0">C3*D3</f>
-        <v>1000</v>
+        <f t="shared" ref="E3:E16" si="0">C3*D3</f>
+        <v>500</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F22" si="1">36*E3</f>
-        <v>36000</v>
+        <f t="shared" ref="F3:F16" si="1">36*E3</f>
+        <v>18000</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G22" si="2">B3*E3</f>
-        <v>3000</v>
+        <f t="shared" ref="G3:G16" si="2">B3*E3</f>
+        <v>2500</v>
       </c>
       <c r="H3">
         <f>G3+H2</f>
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I5" si="3">F3-H3</f>
-        <v>32500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -533,33 +533,33 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H16" si="4">G4+H3</f>
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="I4">
         <f>F4-H4</f>
-        <v>29500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -567,33 +567,33 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H5">
         <f t="shared" si="4"/>
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>26500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -601,33 +601,33 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
+        <v>500</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
       <c r="F6">
         <f t="shared" si="1"/>
         <v>36000</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="H6">
         <f t="shared" si="4"/>
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I16" si="5">F6-H6</f>
-        <v>23500</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -635,33 +635,33 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
+        <v>500</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
       <c r="F7">
         <f t="shared" si="1"/>
         <v>36000</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="H7">
         <f t="shared" si="4"/>
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
-        <v>20500</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -669,33 +669,33 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
+        <v>500</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
       <c r="F8" s="2">
         <f t="shared" si="1"/>
         <v>36000</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="4"/>
-        <v>18500</v>
+        <v>23000</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="5"/>
-        <v>17500</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -703,33 +703,33 @@
         <v>8</v>
       </c>
       <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
       <c r="D9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="1"/>
-        <v>36000</v>
+        <v>54000</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="4"/>
-        <v>21500</v>
+        <v>30500</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="5"/>
-        <v>14500</v>
+        <v>23500</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -737,33 +737,33 @@
         <v>9</v>
       </c>
       <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
       <c r="D10">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
-        <v>36000</v>
+        <v>54000</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="4"/>
-        <v>24500</v>
+        <v>38000</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="5"/>
-        <v>11500</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -771,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
@@ -789,15 +789,15 @@
       </c>
       <c r="G11" s="2">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="4"/>
-        <v>30500</v>
+        <v>48000</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="5"/>
-        <v>41500</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -805,13 +805,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
@@ -823,15 +823,15 @@
       </c>
       <c r="G12" s="2">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="4"/>
-        <v>36500</v>
+        <v>58000</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="5"/>
-        <v>35500</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -839,33 +839,33 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>72000</v>
+        <v>90000</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>12500</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="4"/>
-        <v>42500</v>
+        <v>70500</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="5"/>
-        <v>29500</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -873,33 +873,33 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>72000</v>
+        <v>108000</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="4"/>
-        <v>48500</v>
+        <v>85500</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="5"/>
-        <v>23500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -907,33 +907,33 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>72000</v>
+        <v>126000</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>17500</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="4"/>
-        <v>54500</v>
+        <v>103000</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="5"/>
-        <v>17500</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -941,633 +941,34 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="1"/>
-        <v>108000</v>
+        <v>144000</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="4"/>
-        <v>63500</v>
+        <v>123000</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="5"/>
-        <v>44500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>1000</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="1"/>
-        <v>108000</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="2"/>
-        <v>9000</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" ref="H17:H21" si="6">G17+H16</f>
-        <v>72500</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" ref="I17:I21" si="7">F17-H17</f>
-        <v>35500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>1000</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="1"/>
-        <v>108000</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="2"/>
-        <v>9000</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="6"/>
-        <v>81500</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" si="7"/>
-        <v>26500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>1000</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="1"/>
-        <v>108000</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="2"/>
-        <v>9000</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="6"/>
-        <v>90500</v>
-      </c>
-      <c r="I19" s="2">
-        <f t="shared" si="7"/>
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>1000</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="1"/>
-        <v>144000</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="2"/>
-        <v>12000</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="6"/>
-        <v>102500</v>
-      </c>
-      <c r="I20" s="2">
-        <f t="shared" si="7"/>
-        <v>41500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <v>1000</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="1"/>
-        <v>144000</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="2"/>
-        <v>12000</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="6"/>
-        <v>114500</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" si="7"/>
-        <v>29500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22">
-        <v>1000</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="1"/>
-        <v>144000</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="2"/>
-        <v>12000</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" ref="H22" si="8">G22+H21</f>
-        <v>126500</v>
-      </c>
-      <c r="I22" s="2">
-        <f t="shared" ref="I22" si="9">F22-H22</f>
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>1000</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" ref="E23:E36" si="10">C23*D23</f>
-        <v>5000</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" ref="F23:F36" si="11">36*E23</f>
-        <v>180000</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" ref="G23:G36" si="12">B23*E23</f>
-        <v>15000</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" ref="H23:H36" si="13">G23+H22</f>
-        <v>141500</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" ref="I23:I36" si="14">F23-H23</f>
-        <v>38500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>1000</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="10"/>
-        <v>5000</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="11"/>
-        <v>180000</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="12"/>
-        <v>15000</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="13"/>
-        <v>156500</v>
-      </c>
-      <c r="I24" s="2">
-        <f t="shared" si="14"/>
-        <v>23500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>21</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>6</v>
-      </c>
-      <c r="D25">
-        <v>1000</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="10"/>
-        <v>6000</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="11"/>
-        <v>216000</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="12"/>
-        <v>18000</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="13"/>
-        <v>174500</v>
-      </c>
-      <c r="I25" s="2">
-        <f t="shared" si="14"/>
-        <v>41500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>21</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>1000</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="10"/>
-        <v>6000</v>
-      </c>
-      <c r="F26" s="2">
-        <f t="shared" si="11"/>
-        <v>216000</v>
-      </c>
-      <c r="G26" s="2">
-        <f t="shared" si="12"/>
-        <v>18000</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" si="13"/>
-        <v>192500</v>
-      </c>
-      <c r="I26" s="2">
-        <f t="shared" si="14"/>
-        <v>23500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>21</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>7</v>
-      </c>
-      <c r="D27">
-        <v>1000</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="10"/>
-        <v>7000</v>
-      </c>
-      <c r="F27" s="2">
-        <f t="shared" si="11"/>
-        <v>252000</v>
-      </c>
-      <c r="G27" s="2">
-        <f t="shared" si="12"/>
         <v>21000</v>
       </c>
-      <c r="H27" s="2">
-        <f t="shared" si="13"/>
-        <v>213500</v>
-      </c>
-      <c r="I27" s="2">
-        <f t="shared" si="14"/>
-        <v>38500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>21</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>7</v>
-      </c>
-      <c r="D28">
-        <v>1000</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="10"/>
-        <v>7000</v>
-      </c>
-      <c r="F28" s="2">
-        <f t="shared" si="11"/>
-        <v>252000</v>
-      </c>
-      <c r="G28" s="2">
-        <f t="shared" si="12"/>
-        <v>21000</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" si="13"/>
-        <v>234500</v>
-      </c>
-      <c r="I28" s="2">
-        <f t="shared" si="14"/>
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>21</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>8</v>
-      </c>
-      <c r="D29">
-        <v>1000</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="10"/>
-        <v>8000</v>
-      </c>
-      <c r="F29" s="2">
-        <f t="shared" si="11"/>
-        <v>288000</v>
-      </c>
-      <c r="G29" s="2">
-        <f t="shared" si="12"/>
-        <v>24000</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" si="13"/>
-        <v>258500</v>
-      </c>
-      <c r="I29" s="2">
-        <f t="shared" si="14"/>
-        <v>29500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>21</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>9</v>
-      </c>
-      <c r="D30">
-        <v>1000</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="10"/>
-        <v>9000</v>
-      </c>
-      <c r="F30" s="2">
-        <f t="shared" si="11"/>
-        <v>324000</v>
-      </c>
-      <c r="G30" s="2">
-        <f t="shared" si="12"/>
-        <v>27000</v>
-      </c>
-      <c r="H30" s="2">
-        <f t="shared" si="13"/>
-        <v>285500</v>
-      </c>
-      <c r="I30" s="2">
-        <f t="shared" si="14"/>
-        <v>38500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>21</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>10</v>
-      </c>
-      <c r="D31">
-        <v>1000</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="10"/>
-        <v>10000</v>
-      </c>
-      <c r="F31" s="2">
-        <f t="shared" si="11"/>
-        <v>360000</v>
-      </c>
-      <c r="G31" s="2">
-        <f t="shared" si="12"/>
-        <v>30000</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" si="13"/>
-        <v>315500</v>
-      </c>
-      <c r="I31" s="2">
-        <f t="shared" si="14"/>
-        <v>44500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>21</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32">
-        <v>11</v>
-      </c>
-      <c r="D32">
-        <v>1000</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" si="10"/>
-        <v>11000</v>
-      </c>
-      <c r="F32" s="2">
-        <f t="shared" si="11"/>
-        <v>396000</v>
-      </c>
-      <c r="G32" s="2">
-        <f t="shared" si="12"/>
-        <v>33000</v>
-      </c>
-      <c r="H32" s="2">
-        <f t="shared" si="13"/>
-        <v>348500</v>
-      </c>
-      <c r="I32" s="2">
-        <f t="shared" si="14"/>
-        <v>47500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>21</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33">
-        <v>12</v>
-      </c>
-      <c r="D33">
-        <v>1000</v>
-      </c>
-      <c r="E33" s="2">
-        <f t="shared" si="10"/>
-        <v>12000</v>
-      </c>
-      <c r="F33" s="2">
-        <f t="shared" si="11"/>
-        <v>432000</v>
-      </c>
-      <c r="G33" s="2">
-        <f t="shared" si="12"/>
-        <v>36000</v>
-      </c>
-      <c r="H33" s="2">
-        <f t="shared" si="13"/>
-        <v>384500</v>
-      </c>
-      <c r="I33" s="2">
-        <f t="shared" si="14"/>
-        <v>47500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
